--- a/IMP Know Tools and Challanges faced while working.xlsx
+++ b/IMP Know Tools and Challanges faced while working.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Assign the tasks to team member</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>Seo check tool=&gt; https://varvy.com/tools/redirects/</t>
+  </si>
+  <si>
+    <t>Git information</t>
   </si>
 </sst>
 </file>
@@ -769,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:D52"/>
+  <dimension ref="A5:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1155,6 +1158,11 @@
       </c>
       <c r="B52" s="9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/IMP Know Tools and Challanges faced while working.xlsx
+++ b/IMP Know Tools and Challanges faced while working.xlsx
@@ -217,7 +217,7 @@
     <t>Seo check tool=&gt; https://varvy.com/tools/redirects/</t>
   </si>
   <si>
-    <t>Git information</t>
+    <t>Git information.</t>
   </si>
 </sst>
 </file>
